--- a/biology/Botanique/Thunbergia/Thunbergia.xlsx
+++ b/biology/Botanique/Thunbergia/Thunbergia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thunbergia est un genre appartenant à la famille des Acanthaceae. Il comporte environ 200 espèces. Le nom honore le botaniste suédois Carl Peter Thunberg.
 Ce sont des plantes originaires d'Afrique tropicale, de Madagascar ou d'Asie du Sud-Est.
@@ -513,9 +525,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List            (11 janvier 2018)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (11 janvier 2018) :
 Thunbergia adenocalyx Radlk.
 Thunbergia affinis S.Moore
 Thunbergia alata Bojer ex Sims
@@ -646,9 +660,11 @@
           <t>Espèces aux noms synonymes, obsolètes et leurs taxons de référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon "The Plant List"[2]   6 octobre 2012
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon "The Plant List"   6 octobre 2012
 Thunbergia aspera Nees = Thunbergia atriplicifolia E. Mey. ex Nees , (1847)
 Thunbergia atriplicifolia E. Mey. Ex Nees × T. capensis Retz. = Sanchezia killipii Leonard , (1932)
 Thunbergia bachmannii Lindau = Thunbergia atriplicifolia E. Mey. ex Nees , (1847)
@@ -703,9 +719,11 @@
           <t>Espèces au statut non encore résolu</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon "The Plant List"[2]   6 octobre 2012
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon "The Plant List"   6 octobre 2012
 Thunbergia abyssinica Turrill
 Thunbergia acutibracteata De Wild.
 Thunbergia adenophora W.W.Sm.
